--- a/biology/Microbiologie/Milieu_pour_auxanogramme_du_carbone/Milieu_pour_auxanogramme_du_carbone.xlsx
+++ b/biology/Microbiologie/Milieu_pour_auxanogramme_du_carbone/Milieu_pour_auxanogramme_du_carbone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'auxanogramme du carbone est l'étude de la croissance d'une souche microbienne en présence d'une source de carbone unique et de facteurs de croissance. Le milieu utilisé est un milieu de culture synthétique.
 </t>
@@ -511,7 +523,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce milieu de culture est entièrement synthétique, sa composition est exactement connue. Il ne contient pas de source de carbone (glucides, acides aminés…) autres que ceux étudiés. Il permet la détermination, par la culture, de l'auxanogramme du carbone de chaque molécule et d'obtenir la liste des sources de carbone que le microorganisme est capable d'utiliser pour sa croissance dans les conditions du milieu, c'est-à-dire avec les facteurs de croissance présents s'il est auxotrophe pour certains.
 Un milieu permet d'apprécier la consommation d'une source de carbone comme seul substrat carboné, le milieu Citrate de Simmons, mais la culture impose au microorganisme de n'avoir besoin d'aucun facteur de croissance.
@@ -544,7 +558,9 @@
           <t>Composition du milieu et du supplément</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le supplément est la solution de Berthelot dont la composition est introuvable. Elle est remplacée ici par celle de l'ATCC (voir Bibliographie)
 Le milieu complet peut avoir la composition suivante (selon Sigma - Alldrich) n'incluant pas tous les oligoéléments cités dans l'ATCC.
@@ -576,7 +592,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux possibilités :
 soit le milieu est solide et présenté en boîte de Petri. Après ensemencement, on place des disques de glucides ou d'autres sources de carbone à étudier. Observer alors la culture ou non autour du disque.
@@ -608,7 +626,9 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La présence d'une culture indique que le microorganisme est capable d'assimiler a source de carbone étudiée (glucide ou autre).
 </t>
